--- a/leanCrm/datanew/physicalAreas/PhysicalAreasTypes/data/PhysicalAreasTypes.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalAreasTypes/data/PhysicalAreasTypes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>String</t>
   </si>
@@ -33,42 +33,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>T01</t>
-  </si>
-  <si>
-    <t>T02</t>
-  </si>
-  <si>
-    <t>T03</t>
-  </si>
-  <si>
-    <t>T04</t>
-  </si>
-  <si>
-    <t>T05</t>
-  </si>
-  <si>
-    <t>T06</t>
-  </si>
-  <si>
-    <t>T07</t>
-  </si>
-  <si>
-    <t>T08</t>
-  </si>
-  <si>
-    <t>T09</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
     <t>Portones</t>
   </si>
   <si>
@@ -103,6 +67,48 @@
   </si>
   <si>
     <t>Techos</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>Vacios</t>
+  </si>
+  <si>
+    <t>A13</t>
   </si>
 </sst>
 </file>
@@ -909,13 +915,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -938,98 +945,106 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/leanCrm/datanew/physicalAreas/PhysicalAreasTypes/data/PhysicalAreasTypes.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalAreasTypes/data/PhysicalAreasTypes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>String</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Filos</t>
   </si>
   <si>
-    <t>columnas</t>
-  </si>
-  <si>
     <t>Pisos</t>
   </si>
   <si>
@@ -105,10 +102,55 @@
     <t>A12</t>
   </si>
   <si>
-    <t>Vacios</t>
-  </si>
-  <si>
     <t>A13</t>
+  </si>
+  <si>
+    <t>Filos Marcos Puertas</t>
+  </si>
+  <si>
+    <t>Filos Marcos Ventanas</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>Filos Marco Vacios</t>
+  </si>
+  <si>
+    <t>Andenes</t>
+  </si>
+  <si>
+    <t>Barras</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>Columnas</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>Escaleras</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>Marco Vacios</t>
+  </si>
+  <si>
+    <t>Placas</t>
   </si>
 </sst>
 </file>
@@ -915,13 +957,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -956,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -972,79 +1016,135 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
